--- a/ReleasePlanning_Kristy.xlsx
+++ b/ReleasePlanning_Kristy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="6210"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Release Planning</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Data de Entrega</t>
   </si>
   <si>
-    <t>2 semanas</t>
-  </si>
-  <si>
     <t>3 semanas</t>
   </si>
   <si>
@@ -84,14 +81,14 @@
     <t xml:space="preserve">SPRINTS </t>
   </si>
   <si>
-    <t>100h</t>
+    <t>100h(maximo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,42 +177,42 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -307,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -518,183 +513,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:12">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
@@ -703,52 +720,30 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
